--- a/natmiOut/OldD7/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N2">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q2">
-        <v>83052.04847577384</v>
+        <v>86199.70301377743</v>
       </c>
       <c r="R2">
-        <v>83052.04847577384</v>
+        <v>775797.3271239968</v>
       </c>
       <c r="S2">
-        <v>0.2230995384780932</v>
+        <v>0.2117407229616796</v>
       </c>
       <c r="T2">
-        <v>0.2230995384780932</v>
+        <v>0.2117407229616796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H3">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N3">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q3">
-        <v>1742.543628760747</v>
+        <v>1834.748437831711</v>
       </c>
       <c r="R3">
-        <v>1742.543628760747</v>
+        <v>16512.7359404854</v>
       </c>
       <c r="S3">
-        <v>0.004680928243062725</v>
+        <v>0.004506871219929907</v>
       </c>
       <c r="T3">
-        <v>0.004680928243062725</v>
+        <v>0.004506871219929906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H4">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N4">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q4">
-        <v>117.0559830512957</v>
+        <v>139.0841476979039</v>
       </c>
       <c r="R4">
-        <v>117.0559830512957</v>
+        <v>1251.757329281135</v>
       </c>
       <c r="S4">
-        <v>0.0003144430062126802</v>
+        <v>0.0003416459332969651</v>
       </c>
       <c r="T4">
-        <v>0.0003144430062126802</v>
+        <v>0.000341645933296965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H5">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N5">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q5">
-        <v>10775.36722884167</v>
+        <v>13012.46651352605</v>
       </c>
       <c r="R5">
-        <v>10775.36722884167</v>
+        <v>117112.1986217345</v>
       </c>
       <c r="S5">
-        <v>0.02894545649151308</v>
+        <v>0.0319637883978356</v>
       </c>
       <c r="T5">
-        <v>0.02894545649151308</v>
+        <v>0.0319637883978356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H6">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N6">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q6">
-        <v>173631.1400853139</v>
+        <v>180129.8626480343</v>
       </c>
       <c r="R6">
-        <v>173631.1400853139</v>
+        <v>1621168.763832309</v>
       </c>
       <c r="S6">
-        <v>0.4664186847812455</v>
+        <v>0.4424705191616117</v>
       </c>
       <c r="T6">
-        <v>0.4664186847812455</v>
+        <v>0.4424705191616116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N7">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q7">
-        <v>3643.014741513386</v>
+        <v>3834.038547064349</v>
       </c>
       <c r="R7">
-        <v>3643.014741513386</v>
+        <v>34506.34692357914</v>
       </c>
       <c r="S7">
-        <v>0.009786091040699683</v>
+        <v>0.009417922167186565</v>
       </c>
       <c r="T7">
-        <v>0.009786091040699683</v>
+        <v>0.009417922167186564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H8">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N8">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q8">
-        <v>244.7208005583667</v>
+        <v>290.641470276737</v>
       </c>
       <c r="R8">
-        <v>244.7208005583667</v>
+        <v>2615.773232490633</v>
       </c>
       <c r="S8">
-        <v>0.0006573841183036802</v>
+        <v>0.000713930940448898</v>
       </c>
       <c r="T8">
-        <v>0.0006573841183036802</v>
+        <v>0.0007139309404488977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H9">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N9">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q9">
-        <v>22527.31065781549</v>
+        <v>27191.90117649199</v>
       </c>
       <c r="R9">
-        <v>22527.31065781549</v>
+        <v>244727.1105884279</v>
       </c>
       <c r="S9">
-        <v>0.0605142522448112</v>
+        <v>0.06679411427778016</v>
       </c>
       <c r="T9">
-        <v>0.0605142522448112</v>
+        <v>0.06679411427778015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H10">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N10">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q10">
-        <v>48099.7777962872</v>
+        <v>59679.75500603899</v>
       </c>
       <c r="R10">
-        <v>48099.7777962872</v>
+        <v>537117.7950543509</v>
       </c>
       <c r="S10">
-        <v>0.1292085917709873</v>
+        <v>0.1465971926740268</v>
       </c>
       <c r="T10">
-        <v>0.1292085917709873</v>
+        <v>0.1465971926740268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H11">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N11">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q11">
-        <v>1009.19800151801</v>
+        <v>1270.275110460742</v>
       </c>
       <c r="R11">
-        <v>1009.19800151801</v>
+        <v>11432.47599414667</v>
       </c>
       <c r="S11">
-        <v>0.002710969958042136</v>
+        <v>0.003120300428485179</v>
       </c>
       <c r="T11">
-        <v>0.002710969958042136</v>
+        <v>0.003120300428485179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H12">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N12">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q12">
-        <v>67.79323180855259</v>
+        <v>96.29392642464167</v>
       </c>
       <c r="R12">
-        <v>67.79323180855259</v>
+        <v>866.645337821775</v>
       </c>
       <c r="S12">
-        <v>0.0001821103633926417</v>
+        <v>0.0002365361467047463</v>
       </c>
       <c r="T12">
-        <v>0.0001821103633926417</v>
+        <v>0.0002365361467047462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H13">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N13">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O13">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P13">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q13">
-        <v>6240.57779299525</v>
+        <v>9009.089201008026</v>
       </c>
       <c r="R13">
-        <v>6240.57779299525</v>
+        <v>81081.80280907224</v>
       </c>
       <c r="S13">
-        <v>0.01676382522774258</v>
+        <v>0.02212990293415288</v>
       </c>
       <c r="T13">
-        <v>0.01676382522774258</v>
+        <v>0.02212990293415288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H14">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N14">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O14">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P14">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q14">
-        <v>18326.00558149636</v>
+        <v>20796.76546019813</v>
       </c>
       <c r="R14">
-        <v>18326.00558149636</v>
+        <v>187170.8891417832</v>
       </c>
       <c r="S14">
-        <v>0.04922844724981605</v>
+        <v>0.05108511978403242</v>
       </c>
       <c r="T14">
-        <v>0.04922844724981605</v>
+        <v>0.05108511978403241</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H15">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N15">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O15">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P15">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q15">
-        <v>384.50423382375</v>
+        <v>442.6561995689514</v>
       </c>
       <c r="R15">
-        <v>384.50423382375</v>
+        <v>3983.905796120562</v>
       </c>
       <c r="S15">
-        <v>0.001032879003989578</v>
+        <v>0.00108733952024427</v>
       </c>
       <c r="T15">
-        <v>0.001032879003989578</v>
+        <v>0.00108733952024427</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H16">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N16">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O16">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P16">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q16">
-        <v>25.82920756459524</v>
+        <v>33.55580469276734</v>
       </c>
       <c r="R16">
-        <v>25.82920756459524</v>
+        <v>302.002242234906</v>
       </c>
       <c r="S16">
-        <v>6.938401150450828E-05</v>
+        <v>8.242639007783884E-05</v>
       </c>
       <c r="T16">
-        <v>6.938401150450828E-05</v>
+        <v>8.242639007783882E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H17">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N17">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O17">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P17">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q17">
-        <v>2377.658872990075</v>
+        <v>3139.421653195607</v>
       </c>
       <c r="R17">
-        <v>2377.658872990075</v>
+        <v>28254.79487876046</v>
       </c>
       <c r="S17">
-        <v>0.006387014010583514</v>
+        <v>0.007711667062506495</v>
       </c>
       <c r="T17">
-        <v>0.006387014010583514</v>
+        <v>0.007711667062506494</v>
       </c>
     </row>
   </sheetData>
